--- a/consumption_tables/Total energy consumption._              Billion Btu/Electricity total consumption (i.e., sold)._                                Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Electricity total consumption (i.e., sold)._                                Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
   <si>
     <t>StateCode</t>
   </si>
@@ -56,151 +56,601 @@
     <t>AL</t>
   </si>
   <si>
+    <t>12.276251380182176%</t>
+  </si>
+  <si>
+    <t>15.874921906052656%</t>
+  </si>
+  <si>
+    <t>3.59867052587048%</t>
+  </si>
+  <si>
     <t>AR</t>
   </si>
   <si>
+    <t>10.908793513374576%</t>
+  </si>
+  <si>
+    <t>15.020246290390734%</t>
+  </si>
+  <si>
+    <t>4.111452777016158%</t>
+  </si>
+  <si>
     <t>AZ</t>
   </si>
   <si>
+    <t>15.07001196066507%</t>
+  </si>
+  <si>
+    <t>18.329243823891577%</t>
+  </si>
+  <si>
+    <t>3.259231863226507%</t>
+  </si>
+  <si>
     <t>CA</t>
   </si>
   <si>
+    <t>9.674064498867317%</t>
+  </si>
+  <si>
+    <t>11.608579088471851%</t>
+  </si>
+  <si>
+    <t>1.9345145896045342%</t>
+  </si>
+  <si>
     <t>CO</t>
   </si>
   <si>
+    <t>11.262691443565952%</t>
+  </si>
+  <si>
+    <t>12.474032699038728%</t>
+  </si>
+  <si>
+    <t>1.2113412554727763%</t>
+  </si>
+  <si>
     <t>CT</t>
   </si>
   <si>
+    <t>12.074035026064546%</t>
+  </si>
+  <si>
+    <t>13.381151194382133%</t>
+  </si>
+  <si>
+    <t>1.3071161683175863%</t>
+  </si>
+  <si>
     <t>DE</t>
   </si>
   <si>
+    <t>11.065047525093563%</t>
+  </si>
+  <si>
+    <t>14.111468805639985%</t>
+  </si>
+  <si>
+    <t>3.046421280546422%</t>
+  </si>
+  <si>
     <t>FL</t>
   </si>
   <si>
+    <t>14.927218755819741%</t>
+  </si>
+  <si>
+    <t>18.9515040567509%</t>
+  </si>
+  <si>
+    <t>4.024285300931158%</t>
+  </si>
+  <si>
     <t>GA</t>
   </si>
   <si>
+    <t>12.309357932136223%</t>
+  </si>
+  <si>
+    <t>16.260290346294354%</t>
+  </si>
+  <si>
+    <t>3.9509324141581317%</t>
+  </si>
+  <si>
     <t>HI</t>
   </si>
   <si>
+    <t>8.82207447553209%</t>
+  </si>
+  <si>
+    <t>11.491123087055358%</t>
+  </si>
+  <si>
+    <t>2.6690486115232677%</t>
+  </si>
+  <si>
     <t>IA</t>
   </si>
   <si>
+    <t>10.618784168242815%</t>
+  </si>
+  <si>
+    <t>10.761774150388012%</t>
+  </si>
+  <si>
+    <t>0.1429899821451972%</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
+    <t>15.15191877932188%</t>
+  </si>
+  <si>
+    <t>15.004300455981829%</t>
+  </si>
+  <si>
+    <t>-0.1476183233400512%</t>
+  </si>
+  <si>
     <t>IL</t>
   </si>
   <si>
+    <t>10.630589122285283%</t>
+  </si>
+  <si>
+    <t>11.995997707178256%</t>
+  </si>
+  <si>
+    <t>1.3654085848929736%</t>
+  </si>
+  <si>
     <t>IN</t>
   </si>
   <si>
+    <t>10.127840276487749%</t>
+  </si>
+  <si>
+    <t>12.528391454791318%</t>
+  </si>
+  <si>
+    <t>2.4005511783035693%</t>
+  </si>
+  <si>
     <t>KS</t>
   </si>
   <si>
+    <t>8.685973622890792%</t>
+  </si>
+  <si>
+    <t>12.558757323594097%</t>
+  </si>
+  <si>
+    <t>3.8727837007033052%</t>
+  </si>
+  <si>
     <t>KY</t>
   </si>
   <si>
+    <t>14.250927841958214%</t>
+  </si>
+  <si>
+    <t>15.03608279686301%</t>
+  </si>
+  <si>
+    <t>0.7851549549047956%</t>
+  </si>
+  <si>
     <t>LA</t>
   </si>
   <si>
+    <t>5.644283210969774%</t>
+  </si>
+  <si>
+    <t>7.344622951758882%</t>
+  </si>
+  <si>
+    <t>1.7003397407891079%</t>
+  </si>
+  <si>
     <t>MA</t>
   </si>
   <si>
+    <t>11.020924879979415%</t>
+  </si>
+  <si>
+    <t>12.898628862747161%</t>
+  </si>
+  <si>
+    <t>1.8777039827677466%</t>
+  </si>
+  <si>
     <t>MD</t>
   </si>
   <si>
+    <t>13.318628459211313%</t>
+  </si>
+  <si>
+    <t>15.062816817271733%</t>
+  </si>
+  <si>
+    <t>1.7441883580604198%</t>
+  </si>
+  <si>
     <t>ME</t>
   </si>
   <si>
+    <t>8.602538532864466%</t>
+  </si>
+  <si>
+    <t>9.999285096228514%</t>
+  </si>
+  <si>
+    <t>1.3967465633640472%</t>
+  </si>
+  <si>
     <t>MI</t>
   </si>
   <si>
+    <t>9.778202412088346%</t>
+  </si>
+  <si>
+    <t>12.635237779997311%</t>
+  </si>
+  <si>
+    <t>2.8570353679089653%</t>
+  </si>
+  <si>
     <t>MN</t>
   </si>
   <si>
+    <t>11.486965869006305%</t>
+  </si>
+  <si>
+    <t>12.83492314063735%</t>
+  </si>
+  <si>
+    <t>1.3479572716310457%</t>
+  </si>
+  <si>
     <t>MO</t>
   </si>
   <si>
+    <t>12.401173316222472%</t>
+  </si>
+  <si>
+    <t>15.223236768924215%</t>
+  </si>
+  <si>
+    <t>2.8220634527017427%</t>
+  </si>
+  <si>
     <t>MS</t>
   </si>
   <si>
+    <t>10.65275298320426%</t>
+  </si>
+  <si>
+    <t>14.667296435918036%</t>
+  </si>
+  <si>
+    <t>4.0145434527137756%</t>
+  </si>
+  <si>
     <t>MT</t>
   </si>
   <si>
+    <t>12.884727709026878%</t>
+  </si>
+  <si>
+    <t>12.38369686843759%</t>
+  </si>
+  <si>
+    <t>-0.5010308405892872%</t>
+  </si>
+  <si>
     <t>NC</t>
   </si>
   <si>
+    <t>14.92573907028264%</t>
+  </si>
+  <si>
+    <t>18.095833965667335%</t>
+  </si>
+  <si>
+    <t>3.170094895384695%</t>
+  </si>
+  <si>
     <t>ND</t>
   </si>
   <si>
+    <t>7.657870989625666%</t>
+  </si>
+  <si>
+    <t>10.181001805574072%</t>
+  </si>
+  <si>
+    <t>2.523130815948406%</t>
+  </si>
+  <si>
     <t>NE</t>
   </si>
   <si>
+    <t>11.601456128699551%</t>
+  </si>
+  <si>
+    <t>11.796333697095724%</t>
+  </si>
+  <si>
+    <t>0.19487756839617276%</t>
+  </si>
+  <si>
     <t>NH</t>
   </si>
   <si>
+    <t>11.455385018040417%</t>
+  </si>
+  <si>
+    <t>12.295962832635462%</t>
+  </si>
+  <si>
+    <t>0.8405778145950453%</t>
+  </si>
+  <si>
     <t>NJ</t>
   </si>
   <si>
+    <t>9.54948440433885%</t>
+  </si>
+  <si>
+    <t>11.259181353116055%</t>
+  </si>
+  <si>
+    <t>1.7096969487772053%</t>
+  </si>
+  <si>
     <t>NM</t>
   </si>
   <si>
+    <t>7.90625696844103%</t>
+  </si>
+  <si>
+    <t>11.663708613780924%</t>
+  </si>
+  <si>
+    <t>3.757451645339894%</t>
+  </si>
+  <si>
     <t>NV</t>
   </si>
   <si>
+    <t>13.841806507953835%</t>
+  </si>
+  <si>
+    <t>18.920986916854748%</t>
+  </si>
+  <si>
+    <t>5.079180408900912%</t>
+  </si>
+  <si>
     <t>NY</t>
   </si>
   <si>
+    <t>11.812560283530358%</t>
+  </si>
+  <si>
+    <t>13.642014223761112%</t>
+  </si>
+  <si>
+    <t>1.8294539402307546%</t>
+  </si>
+  <si>
     <t>OH</t>
   </si>
   <si>
+    <t>12.891183992922329%</t>
+  </si>
+  <si>
+    <t>13.609645088398429%</t>
+  </si>
+  <si>
+    <t>0.7184610954760995%</t>
+  </si>
+  <si>
     <t>OK</t>
   </si>
   <si>
+    <t>10.48736481673651%</t>
+  </si>
+  <si>
+    <t>12.832414600795893%</t>
+  </si>
+  <si>
+    <t>2.3450497840593822%</t>
+  </si>
+  <si>
     <t>OR</t>
   </si>
   <si>
+    <t>14.990758498296866%</t>
+  </si>
+  <si>
+    <t>16.856522266309323%</t>
+  </si>
+  <si>
+    <t>1.8657637680124566%</t>
+  </si>
+  <si>
     <t>PA</t>
   </si>
   <si>
+    <t>10.76788147242004%</t>
+  </si>
+  <si>
+    <t>12.86469763480177%</t>
+  </si>
+  <si>
+    <t>2.09681616238173%</t>
+  </si>
+  <si>
     <t>RI</t>
   </si>
   <si>
+    <t>10.296841649976963%</t>
+  </si>
+  <si>
+    <t>12.904244505630064%</t>
+  </si>
+  <si>
+    <t>2.607402855653101%</t>
+  </si>
+  <si>
     <t>SC</t>
   </si>
   <si>
+    <t>15.03482688697434%</t>
+  </si>
+  <si>
+    <t>16.833122230795734%</t>
+  </si>
+  <si>
+    <t>1.798295343821394%</t>
+  </si>
+  <si>
     <t>SD</t>
   </si>
   <si>
+    <t>9.944504776454565%</t>
+  </si>
+  <si>
+    <t>10.767172795756965%</t>
+  </si>
+  <si>
+    <t>0.8226680193023999%</t>
+  </si>
+  <si>
     <t>TN</t>
   </si>
   <si>
+    <t>14.688160210530778%</t>
+  </si>
+  <si>
+    <t>15.68408435342513%</t>
+  </si>
+  <si>
+    <t>0.995924142894351%</t>
+  </si>
+  <si>
     <t>TX</t>
   </si>
   <si>
+    <t>7.860576510203292%</t>
+  </si>
+  <si>
+    <t>10.37909590515512%</t>
+  </si>
+  <si>
+    <t>2.518519394951828%</t>
+  </si>
+  <si>
     <t>UT</t>
   </si>
   <si>
+    <t>9.806907439858021%</t>
+  </si>
+  <si>
+    <t>13.023168790714784%</t>
+  </si>
+  <si>
+    <t>3.2162613508567635%</t>
+  </si>
+  <si>
     <t>VA</t>
   </si>
   <si>
+    <t>12.631366671708214%</t>
+  </si>
+  <si>
+    <t>16.141198691218776%</t>
+  </si>
+  <si>
+    <t>3.5098320195105615%</t>
+  </si>
+  <si>
     <t>VT</t>
   </si>
   <si>
+    <t>12.756444810857086%</t>
+  </si>
+  <si>
+    <t>14.271212121212121%</t>
+  </si>
+  <si>
+    <t>1.514767310355035%</t>
+  </si>
+  <si>
     <t>WA</t>
   </si>
   <si>
+    <t>15.179303503979908%</t>
+  </si>
+  <si>
+    <t>15.463534892983985%</t>
+  </si>
+  <si>
+    <t>0.2842313890040771%</t>
+  </si>
+  <si>
     <t>WI</t>
   </si>
   <si>
+    <t>11.305746962317993%</t>
+  </si>
+  <si>
+    <t>13.196872399624816%</t>
+  </si>
+  <si>
+    <t>1.8911254373068225%</t>
+  </si>
+  <si>
     <t>WV</t>
   </si>
   <si>
+    <t>11.202993218135314%</t>
+  </si>
+  <si>
+    <t>14.223237387326352%</t>
+  </si>
+  <si>
+    <t>3.020244169191038%</t>
+  </si>
+  <si>
     <t>WY</t>
   </si>
   <si>
+    <t>10.053050464285446%</t>
+  </si>
+  <si>
+    <t>11.025469680769818%</t>
+  </si>
+  <si>
+    <t>0.9724192164843721%</t>
+  </si>
+  <si>
     <t>US</t>
+  </si>
+  <si>
+    <t>10.952164489890471%</t>
+  </si>
+  <si>
+    <t>13.188223087501886%</t>
+  </si>
+  <si>
+    <t>2.2360585976114145%</t>
   </si>
 </sst>
 </file>
@@ -631,14 +1081,14 @@
       <c r="G2" s="2" t="n">
         <v>4854000</v>
       </c>
-      <c r="H2" s="2" t="n">
-        <v>0.1227625138018218</v>
-      </c>
-      <c r="I2" s="2" t="n">
-        <v>0.1587492190605266</v>
-      </c>
-      <c r="J2" s="2" t="n">
-        <v>0.0359867052587048</v>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>0.05048543209876543</v>
@@ -655,7 +1105,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>93370</v>
@@ -672,14 +1122,14 @@
       <c r="G3" s="2" t="n">
         <v>2978000</v>
       </c>
-      <c r="H3" s="2" t="n">
-        <v>0.1090879351337458</v>
-      </c>
-      <c r="I3" s="2" t="n">
-        <v>0.1502024629039073</v>
-      </c>
-      <c r="J3" s="2" t="n">
-        <v>0.04111452777016159</v>
+      <c r="H3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>0.03961391599490878</v>
@@ -696,7 +1146,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>141494</v>
@@ -713,14 +1163,14 @@
       <c r="G4" s="2" t="n">
         <v>6818000</v>
       </c>
-      <c r="H4" s="2" t="n">
-        <v>0.1507001196066507</v>
-      </c>
-      <c r="I4" s="2" t="n">
-        <v>0.1832924382389158</v>
-      </c>
-      <c r="J4" s="2" t="n">
-        <v>0.03259231863226508</v>
+      <c r="H4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
         <v>0.03840770901194354</v>
@@ -737,7 +1187,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>720249</v>
@@ -754,14 +1204,14 @@
       <c r="G5" s="2" t="n">
         <v>38994000</v>
       </c>
-      <c r="H5" s="2" t="n">
-        <v>0.09674064498867317</v>
-      </c>
-      <c r="I5" s="2" t="n">
-        <v>0.1160857908847185</v>
-      </c>
-      <c r="J5" s="2" t="n">
-        <v>0.01934514589604533</v>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
         <v>0.02404035380507343</v>
@@ -778,7 +1228,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>105071</v>
@@ -795,14 +1245,14 @@
       <c r="G6" s="2" t="n">
         <v>5449000</v>
       </c>
-      <c r="H6" s="2" t="n">
-        <v>0.1126269144356595</v>
-      </c>
-      <c r="I6" s="2" t="n">
-        <v>0.1247403269903873</v>
-      </c>
-      <c r="J6" s="2" t="n">
-        <v>0.01211341255472775</v>
+      <c r="H6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
         <v>0.03176269649334946</v>
@@ -819,7 +1269,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>92763</v>
@@ -836,14 +1286,14 @@
       <c r="G7" s="2" t="n">
         <v>3585000</v>
       </c>
-      <c r="H7" s="2" t="n">
-        <v>0.1207403502606455</v>
-      </c>
-      <c r="I7" s="2" t="n">
-        <v>0.1338115119438213</v>
-      </c>
-      <c r="J7" s="2" t="n">
-        <v>0.01307116168317586</v>
+      <c r="H7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
         <v>0.02817831105710814</v>
@@ -860,7 +1310,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>28265</v>
@@ -877,14 +1327,14 @@
       <c r="G8" s="2" t="n">
         <v>944000</v>
       </c>
-      <c r="H8" s="2" t="n">
-        <v>0.1106504752509356</v>
-      </c>
-      <c r="I8" s="2" t="n">
-        <v>0.1411146880563998</v>
-      </c>
-      <c r="J8" s="2" t="n">
-        <v>0.03046421280546421</v>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
         <v>0.0421865671641791</v>
@@ -901,7 +1351,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>489741</v>
@@ -918,14 +1368,14 @@
       <c r="G9" s="2" t="n">
         <v>20245000</v>
       </c>
-      <c r="H9" s="2" t="n">
-        <v>0.1492721875581974</v>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.189515040567509</v>
-      </c>
-      <c r="J9" s="2" t="n">
-        <v>0.04024285300931157</v>
+      <c r="H9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
         <v>0.03757699685413949</v>
@@ -942,7 +1392,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>274462</v>
@@ -959,14 +1409,14 @@
       <c r="G10" s="2" t="n">
         <v>10199000</v>
       </c>
-      <c r="H10" s="2" t="n">
-        <v>0.1230935793213622</v>
-      </c>
-      <c r="I10" s="2" t="n">
-        <v>0.1626029034629435</v>
-      </c>
-      <c r="J10" s="2" t="n">
-        <v>0.03950932414158131</v>
+      <c r="H10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
         <v>0.0421406417933364</v>
@@ -983,7 +1433,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>21</v>
+        <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>28356</v>
@@ -1000,14 +1450,14 @@
       <c r="G11" s="2" t="n">
         <v>1425000</v>
       </c>
-      <c r="H11" s="2" t="n">
-        <v>0.08822074475532091</v>
-      </c>
-      <c r="I11" s="2" t="n">
-        <v>0.1149112308705536</v>
-      </c>
-      <c r="J11" s="2" t="n">
-        <v>0.02669048611523267</v>
+      <c r="H11" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
         <v>0.02547708894878706</v>
@@ -1024,7 +1474,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>100440</v>
@@ -1041,14 +1491,14 @@
       <c r="G12" s="2" t="n">
         <v>3122000</v>
       </c>
-      <c r="H12" s="2" t="n">
-        <v>0.1061878416824281</v>
-      </c>
-      <c r="I12" s="2" t="n">
-        <v>0.1076177415038801</v>
-      </c>
-      <c r="J12" s="2" t="n">
-        <v>0.001429899821451974</v>
+      <c r="H12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
         <v>0.03611650485436893</v>
@@ -1065,7 +1515,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>61428</v>
@@ -1082,14 +1532,14 @@
       <c r="G13" s="2" t="n">
         <v>1653000</v>
       </c>
-      <c r="H13" s="2" t="n">
-        <v>0.1515191877932188</v>
-      </c>
-      <c r="I13" s="2" t="n">
-        <v>0.1500430045598183</v>
-      </c>
-      <c r="J13" s="3" t="n">
-        <v>-0.001476183233400513</v>
+      <c r="H13" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
         <v>0.060699604743083</v>
@@ -1106,7 +1556,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>380700</v>
@@ -1123,14 +1573,14 @@
       <c r="G14" s="2" t="n">
         <v>12839000</v>
       </c>
-      <c r="H14" s="2" t="n">
-        <v>0.1063058912228528</v>
-      </c>
-      <c r="I14" s="2" t="n">
-        <v>0.1199599770717826</v>
-      </c>
-      <c r="J14" s="2" t="n">
-        <v>0.01365408584892973</v>
+      <c r="H14" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
         <v>0.0332401990744783</v>
@@ -1147,7 +1597,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>252427</v>
@@ -1164,14 +1614,14 @@
       <c r="G15" s="2" t="n">
         <v>6613000</v>
       </c>
-      <c r="H15" s="2" t="n">
-        <v>0.1012784027648775</v>
-      </c>
-      <c r="I15" s="2" t="n">
-        <v>0.1252839145479132</v>
-      </c>
-      <c r="J15" s="2" t="n">
-        <v>0.0240055117830357</v>
+      <c r="H15" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
         <v>0.0454168765743073</v>
@@ -1188,7 +1638,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>92632</v>
@@ -1205,14 +1655,14 @@
       <c r="G16" s="2" t="n">
         <v>2907000</v>
       </c>
-      <c r="H16" s="2" t="n">
-        <v>0.08685973622890793</v>
-      </c>
-      <c r="I16" s="2" t="n">
-        <v>0.125587573235941</v>
-      </c>
-      <c r="J16" s="2" t="n">
-        <v>0.03872783700703304</v>
+      <c r="H16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
         <v>0.03733655783958081</v>
@@ -1229,7 +1679,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>208463</v>
@@ -1246,14 +1696,14 @@
       <c r="G17" s="2" t="n">
         <v>4425000</v>
       </c>
-      <c r="H17" s="2" t="n">
-        <v>0.1425092784195821</v>
-      </c>
-      <c r="I17" s="2" t="n">
-        <v>0.1503608279686301</v>
-      </c>
-      <c r="J17" s="2" t="n">
-        <v>0.007851549549047959</v>
+      <c r="H17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
         <v>0.05643286410395235</v>
@@ -1270,7 +1720,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>28</v>
+        <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>217774</v>
@@ -1287,14 +1737,14 @@
       <c r="G18" s="2" t="n">
         <v>4669000</v>
       </c>
-      <c r="H18" s="2" t="n">
-        <v>0.05644283210969774</v>
-      </c>
-      <c r="I18" s="2" t="n">
-        <v>0.07344622951758882</v>
-      </c>
-      <c r="J18" s="2" t="n">
-        <v>0.01700339740789108</v>
+      <c r="H18" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
         <v>0.05158076740881099</v>
@@ -1311,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>155047</v>
@@ -1328,14 +1778,14 @@
       <c r="G19" s="2" t="n">
         <v>6784000</v>
       </c>
-      <c r="H19" s="2" t="n">
-        <v>0.1102092487997941</v>
-      </c>
-      <c r="I19" s="2" t="n">
-        <v>0.1289862886274716</v>
-      </c>
-      <c r="J19" s="2" t="n">
-        <v>0.01877703982767746</v>
+      <c r="H19" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
         <v>0.02574248713265814</v>
@@ -1352,7 +1802,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>169009</v>
@@ -1369,14 +1819,14 @@
       <c r="G20" s="2" t="n">
         <v>5995000</v>
       </c>
-      <c r="H20" s="2" t="n">
-        <v>0.1331862845921131</v>
-      </c>
-      <c r="I20" s="2" t="n">
-        <v>0.1506281681727173</v>
-      </c>
-      <c r="J20" s="2" t="n">
-        <v>0.01744188358060419</v>
+      <c r="H20" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
         <v>0.03521020833333333</v>
@@ -1393,7 +1843,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>39337</v>
@@ -1410,14 +1860,14 @@
       <c r="G21" s="2" t="n">
         <v>1329000</v>
       </c>
-      <c r="H21" s="2" t="n">
-        <v>0.08602538532864466</v>
-      </c>
-      <c r="I21" s="2" t="n">
-        <v>0.09999285096228513</v>
-      </c>
-      <c r="J21" s="2" t="n">
-        <v>0.01396746563364047</v>
+      <c r="H21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
         <v>0.03192938311688312</v>
@@ -1434,7 +1884,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>281036</v>
@@ -1451,14 +1901,14 @@
       <c r="G22" s="2" t="n">
         <v>9918000</v>
       </c>
-      <c r="H22" s="2" t="n">
-        <v>0.09778202412088347</v>
-      </c>
-      <c r="I22" s="2" t="n">
-        <v>0.1263523777999731</v>
-      </c>
-      <c r="J22" s="2" t="n">
-        <v>0.02857035367908964</v>
+      <c r="H22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
         <v>0.0301832241434862</v>
@@ -1475,7 +1925,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>160934</v>
@@ -1492,14 +1942,14 @@
       <c r="G23" s="2" t="n">
         <v>5482000</v>
       </c>
-      <c r="H23" s="2" t="n">
-        <v>0.114869658690063</v>
-      </c>
-      <c r="I23" s="2" t="n">
-        <v>0.1283492314063735</v>
-      </c>
-      <c r="J23" s="2" t="n">
-        <v>0.01347957271631045</v>
+      <c r="H23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
         <v>0.03665922551252847</v>
@@ -1516,7 +1966,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>34</v>
+        <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>183991</v>
@@ -1533,14 +1983,14 @@
       <c r="G24" s="2" t="n">
         <v>6076000</v>
       </c>
-      <c r="H24" s="2" t="n">
-        <v>0.1240117331622247</v>
-      </c>
-      <c r="I24" s="2" t="n">
-        <v>0.1522323676892421</v>
-      </c>
-      <c r="J24" s="2" t="n">
-        <v>0.02822063452701742</v>
+      <c r="H24" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
         <v>0.03587268473386625</v>
@@ -1557,7 +2007,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>35</v>
+        <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>109618</v>
@@ -1574,14 +2024,14 @@
       <c r="G25" s="2" t="n">
         <v>2989000</v>
       </c>
-      <c r="H25" s="2" t="n">
-        <v>0.1065275298320426</v>
-      </c>
-      <c r="I25" s="2" t="n">
-        <v>0.1466729643591804</v>
-      </c>
-      <c r="J25" s="2" t="n">
-        <v>0.04014543452713776</v>
+      <c r="H25" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
         <v>0.04250407134548274</v>
@@ -1598,7 +2048,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>36</v>
+        <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>44781</v>
@@ -1615,14 +2065,14 @@
       <c r="G26" s="2" t="n">
         <v>1032000</v>
       </c>
-      <c r="H26" s="2" t="n">
-        <v>0.1288472770902688</v>
-      </c>
-      <c r="I26" s="2" t="n">
-        <v>0.1238369686843759</v>
-      </c>
-      <c r="J26" s="3" t="n">
-        <v>-0.005010308405892866</v>
+      <c r="H26" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
         <v>0.05597625</v>
@@ -1639,7 +2089,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>306822</v>
@@ -1656,14 +2106,14 @@
       <c r="G27" s="2" t="n">
         <v>10035000</v>
       </c>
-      <c r="H27" s="2" t="n">
-        <v>0.1492573907028264</v>
-      </c>
-      <c r="I27" s="2" t="n">
-        <v>0.1809583396566734</v>
-      </c>
-      <c r="J27" s="2" t="n">
-        <v>0.03170094895384695</v>
+      <c r="H27" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J27" s="2" t="s">
+        <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
         <v>0.04604171668667467</v>
@@ -1680,7 +2130,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>38</v>
+        <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>23931</v>
@@ -1697,14 +2147,14 @@
       <c r="G28" s="2" t="n">
         <v>757000</v>
       </c>
-      <c r="H28" s="2" t="n">
-        <v>0.07657870989625666</v>
-      </c>
-      <c r="I28" s="2" t="n">
-        <v>0.1018100180557407</v>
-      </c>
-      <c r="J28" s="2" t="n">
-        <v>0.02523130815948406</v>
+      <c r="H28" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
         <v>0.03750940438871473</v>
@@ -1721,7 +2171,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>60966</v>
@@ -1738,14 +2188,14 @@
       <c r="G29" s="2" t="n">
         <v>2884000</v>
       </c>
-      <c r="H29" s="2" t="n">
-        <v>0.1160145612869955</v>
-      </c>
-      <c r="I29" s="2" t="n">
-        <v>0.1179633369709572</v>
-      </c>
-      <c r="J29" s="2" t="n">
-        <v>0.00194877568396172</v>
+      <c r="H29" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
         <v>0.04993120393120393</v>
@@ -1762,7 +2212,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>40</v>
+        <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>30638</v>
@@ -1779,14 +2229,14 @@
       <c r="G30" s="2" t="n">
         <v>1330000</v>
       </c>
-      <c r="H30" s="2" t="n">
-        <v>0.1145538501804042</v>
-      </c>
-      <c r="I30" s="2" t="n">
-        <v>0.1229596283263546</v>
-      </c>
-      <c r="J30" s="2" t="n">
-        <v>0.008405778145950449</v>
+      <c r="H30" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
         <v>0.02755215827338129</v>
@@ -1803,7 +2253,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>214467</v>
@@ -1820,14 +2270,14 @@
       <c r="G31" s="2" t="n">
         <v>8935000</v>
       </c>
-      <c r="H31" s="2" t="n">
-        <v>0.0954948440433885</v>
-      </c>
-      <c r="I31" s="2" t="n">
-        <v>0.1125918135311605</v>
-      </c>
-      <c r="J31" s="2" t="n">
-        <v>0.01709696948777205</v>
+      <c r="H31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
         <v>0.02762681952853278</v>
@@ -1844,7 +2294,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>42</v>
+        <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>47156</v>
@@ -1861,14 +2311,14 @@
       <c r="G32" s="2" t="n">
         <v>2080000</v>
       </c>
-      <c r="H32" s="2" t="n">
-        <v>0.07906256968441031</v>
-      </c>
-      <c r="I32" s="2" t="n">
-        <v>0.1166370861378093</v>
-      </c>
-      <c r="J32" s="2" t="n">
-        <v>0.03757451645339895</v>
+      <c r="H32" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
         <v>0.03098291721419185</v>
@@ -1885,7 +2335,7 @@
         <v>31</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>43</v>
+        <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>55793</v>
@@ -1902,14 +2352,14 @@
       <c r="G33" s="2" t="n">
         <v>1894000</v>
       </c>
-      <c r="H33" s="2" t="n">
-        <v>0.1384180650795384</v>
-      </c>
-      <c r="I33" s="2" t="n">
-        <v>0.1892098691685475</v>
-      </c>
-      <c r="J33" s="4" t="n">
-        <v>0.05079180408900913</v>
+      <c r="H33" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
         <v>0.03526738305941846</v>
@@ -1926,7 +2376,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>44</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>441255</v>
@@ -1943,14 +2393,14 @@
       <c r="G34" s="2" t="n">
         <v>19747000</v>
       </c>
-      <c r="H34" s="2" t="n">
-        <v>0.1181256028353036</v>
-      </c>
-      <c r="I34" s="2" t="n">
-        <v>0.1364201422376111</v>
-      </c>
-      <c r="J34" s="2" t="n">
-        <v>0.01829453940230753</v>
+      <c r="H34" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
         <v>0.02448560013317796</v>
@@ -1967,7 +2417,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>45</v>
+        <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>486092</v>
@@ -1984,14 +2434,14 @@
       <c r="G35" s="2" t="n">
         <v>11605000</v>
       </c>
-      <c r="H35" s="2" t="n">
-        <v>0.1289118399292233</v>
-      </c>
-      <c r="I35" s="2" t="n">
-        <v>0.1360964508839843</v>
-      </c>
-      <c r="J35" s="2" t="n">
-        <v>0.007184610954761</v>
+      <c r="H35" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
         <v>0.04474337260677467</v>
@@ -2008,7 +2458,7 @@
         <v>34</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>145024</v>
@@ -2025,14 +2475,14 @@
       <c r="G36" s="2" t="n">
         <v>3907000</v>
       </c>
-      <c r="H36" s="2" t="n">
-        <v>0.1048736481673651</v>
-      </c>
-      <c r="I36" s="2" t="n">
-        <v>0.1283241460079589</v>
-      </c>
-      <c r="J36" s="2" t="n">
-        <v>0.02345049784059383</v>
+      <c r="H36" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
         <v>0.046053985392188</v>
@@ -2049,7 +2499,7 @@
         <v>35</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>47</v>
+        <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>146639</v>
@@ -2066,14 +2516,14 @@
       <c r="G37" s="2" t="n">
         <v>4025000</v>
       </c>
-      <c r="H37" s="2" t="n">
-        <v>0.1499075849829687</v>
-      </c>
-      <c r="I37" s="2" t="n">
-        <v>0.1685652226630932</v>
-      </c>
-      <c r="J37" s="2" t="n">
-        <v>0.01865763768012457</v>
+      <c r="H37" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
         <v>0.05127237762237762</v>
@@ -2090,7 +2540,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>48</v>
+        <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>391529</v>
@@ -2107,14 +2557,14 @@
       <c r="G38" s="2" t="n">
         <v>12792000</v>
       </c>
-      <c r="H38" s="2" t="n">
-        <v>0.1076788147242004</v>
-      </c>
-      <c r="I38" s="2" t="n">
-        <v>0.1286469763480177</v>
-      </c>
-      <c r="J38" s="2" t="n">
-        <v>0.0209681616238173</v>
+      <c r="H38" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
         <v>0.03289330420902294</v>
@@ -2131,7 +2581,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>49</v>
+        <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>21902</v>
@@ -2148,14 +2598,14 @@
       <c r="G39" s="2" t="n">
         <v>1056000</v>
       </c>
-      <c r="H39" s="2" t="n">
-        <v>0.1029684164997696</v>
-      </c>
-      <c r="I39" s="2" t="n">
-        <v>0.1290424450563006</v>
-      </c>
-      <c r="J39" s="2" t="n">
-        <v>0.026074028556531</v>
+      <c r="H39" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
         <v>0.0217713717693837</v>
@@ -2172,7 +2622,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>50</v>
+        <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>189884</v>
@@ -2189,14 +2639,14 @@
       <c r="G40" s="2" t="n">
         <v>4895000</v>
       </c>
-      <c r="H40" s="2" t="n">
-        <v>0.1503482688697434</v>
-      </c>
-      <c r="I40" s="2" t="n">
-        <v>0.1683312223079574</v>
-      </c>
-      <c r="J40" s="2" t="n">
-        <v>0.01798295343821396</v>
+      <c r="H40" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
         <v>0.05423707512139389</v>
@@ -2213,7 +2663,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>51</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>21611</v>
@@ -2230,14 +2680,14 @@
       <c r="G41" s="2" t="n">
         <v>858000</v>
       </c>
-      <c r="H41" s="2" t="n">
-        <v>0.09944504776454564</v>
-      </c>
-      <c r="I41" s="2" t="n">
-        <v>0.1076717279575696</v>
-      </c>
-      <c r="J41" s="2" t="n">
-        <v>0.008226680193024</v>
+      <c r="H41" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
         <v>0.03100573888091822</v>
@@ -2254,7 +2704,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>263218</v>
@@ -2271,14 +2721,14 @@
       <c r="G42" s="2" t="n">
         <v>6595000</v>
       </c>
-      <c r="H42" s="2" t="n">
-        <v>0.1468816021053078</v>
-      </c>
-      <c r="I42" s="2" t="n">
-        <v>0.1568408435342513</v>
-      </c>
-      <c r="J42" s="2" t="n">
-        <v>0.009959241428943499</v>
+      <c r="H42" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
         <v>0.05378381691867593</v>
@@ -2295,7 +2745,7 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>53</v>
+        <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>810060</v>
@@ -2312,14 +2762,14 @@
       <c r="G43" s="2" t="n">
         <v>27430000</v>
       </c>
-      <c r="H43" s="2" t="n">
-        <v>0.07860576510203292</v>
-      </c>
-      <c r="I43" s="2" t="n">
-        <v>0.1037909590515512</v>
-      </c>
-      <c r="J43" s="2" t="n">
-        <v>0.02518519394951828</v>
+      <c r="H43" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="I43" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J43" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
         <v>0.04749135252389049</v>
@@ -2336,7 +2786,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>54</v>
+        <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>52551</v>
@@ -2353,14 +2803,14 @@
       <c r="G44" s="2" t="n">
         <v>2991000</v>
       </c>
-      <c r="H44" s="2" t="n">
-        <v>0.09806907439858022</v>
-      </c>
-      <c r="I44" s="2" t="n">
-        <v>0.1302316879071478</v>
-      </c>
-      <c r="J44" s="2" t="n">
-        <v>0.03216261350856763</v>
+      <c r="H44" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="I44" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="J44" s="2" t="s">
+        <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
         <v>0.03035875216637782</v>
@@ -2377,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>55</v>
+        <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>248040</v>
@@ -2394,14 +2844,14 @@
       <c r="G45" s="2" t="n">
         <v>8368000</v>
       </c>
-      <c r="H45" s="2" t="n">
-        <v>0.1263136667170821</v>
-      </c>
-      <c r="I45" s="2" t="n">
-        <v>0.1614119869121877</v>
-      </c>
-      <c r="J45" s="2" t="n">
-        <v>0.03509832019510561</v>
+      <c r="H45" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
         <v>0.03989705645809876</v>
@@ -2418,7 +2868,7 @@
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>56</v>
+        <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>16092</v>
@@ -2435,14 +2885,14 @@
       <c r="G46" s="2" t="n">
         <v>626000</v>
       </c>
-      <c r="H46" s="2" t="n">
-        <v>0.1275644481085709</v>
-      </c>
-      <c r="I46" s="2" t="n">
-        <v>0.1427121212121212</v>
-      </c>
-      <c r="J46" s="2" t="n">
-        <v>0.01514767310355034</v>
+      <c r="H46" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
         <v>0.02848141592920354</v>
@@ -2459,7 +2909,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>57</v>
+        <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>310649</v>
@@ -2476,14 +2926,14 @@
       <c r="G47" s="2" t="n">
         <v>7160000</v>
       </c>
-      <c r="H47" s="4" t="n">
-        <v>0.1517930350397991</v>
-      </c>
-      <c r="I47" s="2" t="n">
-        <v>0.1546353489298398</v>
-      </c>
-      <c r="J47" s="2" t="n">
-        <v>0.002842313890040776</v>
+      <c r="H47" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="I47" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="J47" s="2" t="s">
+        <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
         <v>0.06335896389965327</v>
@@ -2500,7 +2950,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>58</v>
+        <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>167864</v>
@@ -2517,14 +2967,14 @@
       <c r="G48" s="2" t="n">
         <v>5768000</v>
       </c>
-      <c r="H48" s="2" t="n">
-        <v>0.1130574696231799</v>
-      </c>
-      <c r="I48" s="2" t="n">
-        <v>0.1319687239962481</v>
-      </c>
-      <c r="J48" s="2" t="n">
-        <v>0.01891125437306822</v>
+      <c r="H48" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="I48" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="J48" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
         <v>0.0342230377166157</v>
@@ -2541,7 +2991,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>59</v>
+        <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>78928</v>
@@ -2558,14 +3008,14 @@
       <c r="G49" s="2" t="n">
         <v>1841000</v>
       </c>
-      <c r="H49" s="2" t="n">
-        <v>0.1120299321813531</v>
-      </c>
-      <c r="I49" s="2" t="n">
-        <v>0.1422323738732635</v>
-      </c>
-      <c r="J49" s="2" t="n">
-        <v>0.03020244169191037</v>
+      <c r="H49" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
         <v>0.04402007808142777</v>
@@ -2582,7 +3032,7 @@
         <v>49</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>40155</v>
@@ -2599,14 +3049,14 @@
       <c r="G50" s="2" t="n">
         <v>587000</v>
       </c>
-      <c r="H50" s="2" t="n">
-        <v>0.1005305046428545</v>
-      </c>
-      <c r="I50" s="2" t="n">
-        <v>0.1102546968076982</v>
-      </c>
-      <c r="J50" s="2" t="n">
-        <v>0.009724192164843729</v>
+      <c r="H50" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I50" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J50" s="2" t="s">
+        <v>207</v>
       </c>
       <c r="K50" s="4" t="n">
         <v>0.08844713656387665</v>
@@ -2623,7 +3073,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>61</v>
+        <v>208</v>
       </c>
       <c r="C51" s="4" t="n">
         <v>9255237</v>
@@ -2640,14 +3090,14 @@
       <c r="G51" s="4" t="n">
         <v>320897000</v>
       </c>
-      <c r="H51" s="2" t="n">
-        <v>0.1095216448989047</v>
-      </c>
-      <c r="I51" s="2" t="n">
-        <v>0.1318822308750189</v>
-      </c>
-      <c r="J51" s="2" t="n">
-        <v>0.02236058597611415</v>
+      <c r="H51" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="I51" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="J51" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="K51" s="2" t="n">
         <v>0.03707685990473635</v>

--- a/consumption_tables/Total energy consumption._              Billion Btu/Electricity total consumption (i.e., sold)._                                Billion Btu.xlsx
+++ b/consumption_tables/Total energy consumption._              Billion Btu/Electricity total consumption (i.e., sold)._                                Billion Btu.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="216">
   <si>
     <t>StateCode</t>
   </si>
@@ -51,6 +51,18 @@
   </si>
   <si>
     <t>ChangeConsumptionPerCapita</t>
+  </si>
+  <si>
+    <t>AK</t>
+  </si>
+  <si>
+    <t>2.484920807487977%</t>
+  </si>
+  <si>
+    <t>3.3901121326168635%</t>
+  </si>
+  <si>
+    <t>0.9051913251288863%</t>
   </si>
   <si>
     <t>AL</t>
@@ -1013,7 +1025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1067,19 +1079,19 @@
         <v>12</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>204466</v>
+        <v>14514</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>303141</v>
+        <v>21015</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>1.482598573846018</v>
+        <v>1.447912360479537</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>4050000</v>
+        <v>553000</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4854000</v>
+        <v>738000</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>13</v>
@@ -1091,13 +1103,13 @@
         <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>0.05048543209876543</v>
+        <v>0.02624593128390597</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>0.06245179233621755</v>
+        <v>0.02847560975609756</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>0.01196636023745212</v>
+        <v>0.002229678472191594</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1108,19 +1120,19 @@
         <v>16</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>93370</v>
+        <v>204466</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>158539</v>
+        <v>303141</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>1.697965085145122</v>
+        <v>1.482598573846018</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>2357000</v>
+        <v>4050000</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>2978000</v>
+        <v>4854000</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>17</v>
@@ -1132,13 +1144,13 @@
         <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>0.03961391599490878</v>
+        <v>0.05048543209876543</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>0.0532367360644728</v>
+        <v>0.06245179233621755</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>0.01362282006956402</v>
+        <v>0.01196636023745212</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -1149,19 +1161,19 @@
         <v>20</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>141494</v>
+        <v>93370</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>263916</v>
+        <v>158539</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>1.865209832219034</v>
+        <v>1.697965085145122</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3684000</v>
+        <v>2357000</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>6818000</v>
+        <v>2978000</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>21</v>
@@ -1173,13 +1185,13 @@
         <v>23</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>0.03840770901194354</v>
+        <v>0.03961391599490878</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>0.03870871223232619</v>
+        <v>0.0532367360644728</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>0.0003010032203826507</v>
+        <v>0.01362282006956402</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -1190,19 +1202,19 @@
         <v>24</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>720249</v>
+        <v>141494</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>891114</v>
+        <v>263916</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>1.237230457800011</v>
+        <v>1.865209832219034</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>29960000</v>
+        <v>3684000</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>38994000</v>
+        <v>6818000</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>25</v>
@@ -1214,13 +1226,13 @@
         <v>27</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>0.02404035380507343</v>
+        <v>0.03840770901194354</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>0.02285259270657024</v>
-      </c>
-      <c r="M5" s="3" t="n">
-        <v>-0.001187761098503191</v>
+        <v>0.03870871223232619</v>
+      </c>
+      <c r="M5" s="2" t="n">
+        <v>0.0003010032203826507</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -1231,19 +1243,19 @@
         <v>28</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>105071</v>
+        <v>720249</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>184644</v>
+        <v>891114</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>1.757325998610463</v>
+        <v>1.237230457800011</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3308000</v>
+        <v>29960000</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5449000</v>
+        <v>38994000</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>29</v>
@@ -1255,13 +1267,13 @@
         <v>31</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>0.03176269649334946</v>
+        <v>0.02404035380507343</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>0.03388585061479171</v>
-      </c>
-      <c r="M6" s="2" t="n">
-        <v>0.002123154121442247</v>
+        <v>0.02285259270657024</v>
+      </c>
+      <c r="M6" s="3" t="n">
+        <v>-0.001187761098503191</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -1272,19 +1284,19 @@
         <v>32</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>92763</v>
+        <v>105071</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>100573</v>
+        <v>184644</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>1.084193051108739</v>
+        <v>1.757325998610463</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3292000</v>
+        <v>3308000</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>3585000</v>
+        <v>5449000</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>33</v>
@@ -1296,13 +1308,13 @@
         <v>35</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>0.02817831105710814</v>
+        <v>0.03176269649334946</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>0.02805383542538354</v>
-      </c>
-      <c r="M7" s="3" t="n">
-        <v>-0.0001244756317245986</v>
+        <v>0.03388585061479171</v>
+      </c>
+      <c r="M7" s="2" t="n">
+        <v>0.002123154121442247</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -1313,19 +1325,19 @@
         <v>36</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>28265</v>
+        <v>92763</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>39232</v>
+        <v>100573</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>1.388006368300018</v>
+        <v>1.084193051108739</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>670000</v>
+        <v>3292000</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>944000</v>
+        <v>3585000</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>37</v>
@@ -1337,13 +1349,13 @@
         <v>39</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>0.0421865671641791</v>
+        <v>0.02817831105710814</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>0.0415593220338983</v>
+        <v>0.02805383542538354</v>
       </c>
       <c r="M8" s="3" t="n">
-        <v>-0.0006272451302807985</v>
+        <v>-0.0001244756317245986</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -1354,37 +1366,37 @@
         <v>40</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>489741</v>
+        <v>28265</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>803865</v>
+        <v>39232</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>1.641408417918859</v>
+        <v>1.388006368300018</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>13033000</v>
+        <v>670000</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>20245000</v>
+        <v>944000</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="2" t="s">
         <v>42</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>43</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>0.03757699685413949</v>
+        <v>0.0421865671641791</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>0.03970684119535688</v>
-      </c>
-      <c r="M9" s="2" t="n">
-        <v>0.002129844341217386</v>
+        <v>0.0415593220338983</v>
+      </c>
+      <c r="M9" s="3" t="n">
+        <v>-0.0006272451302807985</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -1395,37 +1407,37 @@
         <v>44</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>274462</v>
+        <v>489741</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>463616</v>
+        <v>803865</v>
       </c>
       <c r="E10" s="2" t="n">
-        <v>1.689181015951206</v>
+        <v>1.641408417918859</v>
       </c>
       <c r="F10" s="2" t="n">
-        <v>6513000</v>
+        <v>13033000</v>
       </c>
       <c r="G10" s="2" t="n">
-        <v>10199000</v>
+        <v>20245000</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="4" t="s">
         <v>46</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>47</v>
       </c>
       <c r="K10" s="2" t="n">
-        <v>0.0421406417933364</v>
+        <v>0.03757699685413949</v>
       </c>
       <c r="L10" s="2" t="n">
-        <v>0.04545700558878321</v>
+        <v>0.03970684119535688</v>
       </c>
       <c r="M10" s="2" t="n">
-        <v>0.003316363795446808</v>
+        <v>0.002129844341217386</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -1436,19 +1448,19 @@
         <v>48</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>28356</v>
+        <v>274462</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>32453</v>
+        <v>463616</v>
       </c>
       <c r="E11" s="2" t="n">
-        <v>1.144484412470024</v>
+        <v>1.689181015951206</v>
       </c>
       <c r="F11" s="2" t="n">
-        <v>1113000</v>
+        <v>6513000</v>
       </c>
       <c r="G11" s="2" t="n">
-        <v>1425000</v>
+        <v>10199000</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>49</v>
@@ -1460,13 +1472,13 @@
         <v>51</v>
       </c>
       <c r="K11" s="2" t="n">
-        <v>0.02547708894878706</v>
+        <v>0.0421406417933364</v>
       </c>
       <c r="L11" s="2" t="n">
-        <v>0.0227740350877193</v>
-      </c>
-      <c r="M11" s="3" t="n">
-        <v>-0.002703053861067763</v>
+        <v>0.04545700558878321</v>
+      </c>
+      <c r="M11" s="2" t="n">
+        <v>0.003316363795446808</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -1477,19 +1489,19 @@
         <v>52</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>100440</v>
+        <v>28356</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>160867</v>
+        <v>32453</v>
       </c>
       <c r="E12" s="2" t="n">
-        <v>1.601622859418558</v>
+        <v>1.144484412470024</v>
       </c>
       <c r="F12" s="2" t="n">
-        <v>2781000</v>
+        <v>1113000</v>
       </c>
       <c r="G12" s="2" t="n">
-        <v>3122000</v>
+        <v>1425000</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>53</v>
@@ -1501,13 +1513,13 @@
         <v>55</v>
       </c>
       <c r="K12" s="2" t="n">
-        <v>0.03611650485436893</v>
+        <v>0.02547708894878706</v>
       </c>
       <c r="L12" s="2" t="n">
-        <v>0.05152690582959641</v>
-      </c>
-      <c r="M12" s="2" t="n">
-        <v>0.01541040097522748</v>
+        <v>0.0227740350877193</v>
+      </c>
+      <c r="M12" s="3" t="n">
+        <v>-0.002703053861067763</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -1518,19 +1530,19 @@
         <v>56</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>61428</v>
+        <v>100440</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>78677</v>
+        <v>160867</v>
       </c>
       <c r="E13" s="2" t="n">
-        <v>1.280800286514293</v>
+        <v>1.601622859418558</v>
       </c>
       <c r="F13" s="2" t="n">
-        <v>1012000</v>
+        <v>2781000</v>
       </c>
       <c r="G13" s="2" t="n">
-        <v>1653000</v>
+        <v>3122000</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>57</v>
@@ -1542,13 +1554,13 @@
         <v>59</v>
       </c>
       <c r="K13" s="2" t="n">
-        <v>0.060699604743083</v>
+        <v>0.03611650485436893</v>
       </c>
       <c r="L13" s="2" t="n">
-        <v>0.04759649122807018</v>
-      </c>
-      <c r="M13" s="3" t="n">
-        <v>-0.01310311351501282</v>
+        <v>0.05152690582959641</v>
+      </c>
+      <c r="M13" s="2" t="n">
+        <v>0.01541040097522748</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1559,19 +1571,19 @@
         <v>60</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>380700</v>
+        <v>61428</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>472971</v>
+        <v>78677</v>
       </c>
       <c r="E14" s="2" t="n">
-        <v>1.2423719464145</v>
+        <v>1.280800286514293</v>
       </c>
       <c r="F14" s="2" t="n">
-        <v>11453000</v>
+        <v>1012000</v>
       </c>
       <c r="G14" s="2" t="n">
-        <v>12839000</v>
+        <v>1653000</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>61</v>
@@ -1583,13 +1595,13 @@
         <v>63</v>
       </c>
       <c r="K14" s="2" t="n">
-        <v>0.0332401990744783</v>
+        <v>0.060699604743083</v>
       </c>
       <c r="L14" s="2" t="n">
-        <v>0.0368386167146974</v>
-      </c>
-      <c r="M14" s="2" t="n">
-        <v>0.0035984176402191</v>
+        <v>0.04759649122807018</v>
+      </c>
+      <c r="M14" s="3" t="n">
+        <v>-0.01310311351501282</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -1600,19 +1612,19 @@
         <v>64</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>252427</v>
+        <v>380700</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>356604</v>
+        <v>472971</v>
       </c>
       <c r="E15" s="2" t="n">
-        <v>1.412701493897246</v>
+        <v>1.2423719464145</v>
       </c>
       <c r="F15" s="2" t="n">
-        <v>5558000</v>
+        <v>11453000</v>
       </c>
       <c r="G15" s="2" t="n">
-        <v>6613000</v>
+        <v>12839000</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>65</v>
@@ -1624,13 +1636,13 @@
         <v>67</v>
       </c>
       <c r="K15" s="2" t="n">
-        <v>0.0454168765743073</v>
+        <v>0.0332401990744783</v>
       </c>
       <c r="L15" s="2" t="n">
-        <v>0.053924693784969</v>
+        <v>0.0368386167146974</v>
       </c>
       <c r="M15" s="2" t="n">
-        <v>0.008507817210661697</v>
+        <v>0.0035984176402191</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -1641,19 +1653,19 @@
         <v>68</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>92632</v>
+        <v>252427</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>135965</v>
+        <v>356604</v>
       </c>
       <c r="E16" s="2" t="n">
-        <v>1.467797305466793</v>
+        <v>1.412701493897246</v>
       </c>
       <c r="F16" s="2" t="n">
-        <v>2481000</v>
+        <v>5558000</v>
       </c>
       <c r="G16" s="2" t="n">
-        <v>2907000</v>
+        <v>6613000</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>69</v>
@@ -1665,13 +1677,13 @@
         <v>71</v>
       </c>
       <c r="K16" s="2" t="n">
-        <v>0.03733655783958081</v>
+        <v>0.0454168765743073</v>
       </c>
       <c r="L16" s="2" t="n">
-        <v>0.04677158582731338</v>
+        <v>0.053924693784969</v>
       </c>
       <c r="M16" s="2" t="n">
-        <v>0.009435027987732568</v>
+        <v>0.008507817210661697</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -1682,19 +1694,19 @@
         <v>72</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>208463</v>
+        <v>92632</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>259444</v>
+        <v>135965</v>
       </c>
       <c r="E17" s="2" t="n">
-        <v>1.244556587979641</v>
+        <v>1.467797305466793</v>
       </c>
       <c r="F17" s="2" t="n">
-        <v>3694000</v>
+        <v>2481000</v>
       </c>
       <c r="G17" s="2" t="n">
-        <v>4425000</v>
+        <v>2907000</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>73</v>
@@ -1706,13 +1718,13 @@
         <v>75</v>
       </c>
       <c r="K17" s="2" t="n">
-        <v>0.05643286410395235</v>
+        <v>0.03733655783958081</v>
       </c>
       <c r="L17" s="2" t="n">
-        <v>0.05863141242937853</v>
+        <v>0.04677158582731338</v>
       </c>
       <c r="M17" s="2" t="n">
-        <v>0.002198548325426181</v>
+        <v>0.009435027987732568</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1723,19 +1735,19 @@
         <v>76</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>217774</v>
+        <v>208463</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>312800</v>
+        <v>259444</v>
       </c>
       <c r="E18" s="2" t="n">
-        <v>1.436351446912855</v>
+        <v>1.244556587979641</v>
       </c>
       <c r="F18" s="2" t="n">
-        <v>4222000</v>
+        <v>3694000</v>
       </c>
       <c r="G18" s="2" t="n">
-        <v>4669000</v>
+        <v>4425000</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>77</v>
@@ -1747,13 +1759,13 @@
         <v>79</v>
       </c>
       <c r="K18" s="2" t="n">
-        <v>0.05158076740881099</v>
+        <v>0.05643286410395235</v>
       </c>
       <c r="L18" s="2" t="n">
-        <v>0.06699507389162561</v>
+        <v>0.05863141242937853</v>
       </c>
       <c r="M18" s="2" t="n">
-        <v>0.01541430648281462</v>
+        <v>0.002198548325426181</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1764,19 +1776,19 @@
         <v>80</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>155047</v>
+        <v>217774</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>186367</v>
+        <v>312800</v>
       </c>
       <c r="E19" s="2" t="n">
-        <v>1.202003263526544</v>
+        <v>1.436351446912855</v>
       </c>
       <c r="F19" s="2" t="n">
-        <v>6023000</v>
+        <v>4222000</v>
       </c>
       <c r="G19" s="2" t="n">
-        <v>6784000</v>
+        <v>4669000</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>81</v>
@@ -1788,13 +1800,13 @@
         <v>83</v>
       </c>
       <c r="K19" s="2" t="n">
-        <v>0.02574248713265814</v>
+        <v>0.05158076740881099</v>
       </c>
       <c r="L19" s="2" t="n">
-        <v>0.02747155070754717</v>
+        <v>0.06699507389162561</v>
       </c>
       <c r="M19" s="2" t="n">
-        <v>0.001729063574889028</v>
+        <v>0.01541430648281462</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1805,19 +1817,19 @@
         <v>84</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>169009</v>
+        <v>155047</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>210799</v>
+        <v>186367</v>
       </c>
       <c r="E20" s="2" t="n">
-        <v>1.247264938553568</v>
+        <v>1.202003263526544</v>
       </c>
       <c r="F20" s="2" t="n">
-        <v>4800000</v>
+        <v>6023000</v>
       </c>
       <c r="G20" s="2" t="n">
-        <v>5995000</v>
+        <v>6784000</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>85</v>
@@ -1829,13 +1841,13 @@
         <v>87</v>
       </c>
       <c r="K20" s="2" t="n">
-        <v>0.03521020833333333</v>
+        <v>0.02574248713265814</v>
       </c>
       <c r="L20" s="2" t="n">
-        <v>0.03516246872393661</v>
-      </c>
-      <c r="M20" s="3" t="n">
-        <v>-4.773960939671862e-05</v>
+        <v>0.02747155070754717</v>
+      </c>
+      <c r="M20" s="2" t="n">
+        <v>0.001729063574889028</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1846,19 +1858,19 @@
         <v>88</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>39337</v>
+        <v>169009</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>40562</v>
+        <v>210799</v>
       </c>
       <c r="E21" s="2" t="n">
-        <v>1.031141164806671</v>
+        <v>1.247264938553568</v>
       </c>
       <c r="F21" s="2" t="n">
-        <v>1232000</v>
+        <v>4800000</v>
       </c>
       <c r="G21" s="2" t="n">
-        <v>1329000</v>
+        <v>5995000</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>89</v>
@@ -1870,13 +1882,13 @@
         <v>91</v>
       </c>
       <c r="K21" s="2" t="n">
-        <v>0.03192938311688312</v>
+        <v>0.03521020833333333</v>
       </c>
       <c r="L21" s="2" t="n">
-        <v>0.03052069224981189</v>
+        <v>0.03516246872393661</v>
       </c>
       <c r="M21" s="3" t="n">
-        <v>-0.001408690867071231</v>
+        <v>-4.773960939671862e-05</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1887,19 +1899,19 @@
         <v>92</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>281036</v>
+        <v>39337</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>349661</v>
+        <v>40562</v>
       </c>
       <c r="E22" s="2" t="n">
-        <v>1.244185798260721</v>
+        <v>1.031141164806671</v>
       </c>
       <c r="F22" s="2" t="n">
-        <v>9311000</v>
+        <v>1232000</v>
       </c>
       <c r="G22" s="2" t="n">
-        <v>9918000</v>
+        <v>1329000</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>93</v>
@@ -1911,13 +1923,13 @@
         <v>95</v>
       </c>
       <c r="K22" s="2" t="n">
-        <v>0.0301832241434862</v>
+        <v>0.03192938311688312</v>
       </c>
       <c r="L22" s="2" t="n">
-        <v>0.03525519257914903</v>
-      </c>
-      <c r="M22" s="2" t="n">
-        <v>0.005071968435662825</v>
+        <v>0.03052069224981189</v>
+      </c>
+      <c r="M22" s="3" t="n">
+        <v>-0.001408690867071231</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1928,19 +1940,19 @@
         <v>96</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>160934</v>
+        <v>281036</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>227168</v>
+        <v>349661</v>
       </c>
       <c r="E23" s="2" t="n">
-        <v>1.411560018392633</v>
+        <v>1.244185798260721</v>
       </c>
       <c r="F23" s="2" t="n">
-        <v>4390000</v>
+        <v>9311000</v>
       </c>
       <c r="G23" s="2" t="n">
-        <v>5482000</v>
+        <v>9918000</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>97</v>
@@ -1952,13 +1964,13 @@
         <v>99</v>
       </c>
       <c r="K23" s="2" t="n">
-        <v>0.03665922551252847</v>
+        <v>0.0301832241434862</v>
       </c>
       <c r="L23" s="2" t="n">
-        <v>0.04143889091572419</v>
+        <v>0.03525519257914903</v>
       </c>
       <c r="M23" s="2" t="n">
-        <v>0.004779665403195715</v>
+        <v>0.005071968435662825</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1969,19 +1981,19 @@
         <v>100</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>183991</v>
+        <v>160934</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>278092</v>
+        <v>227168</v>
       </c>
       <c r="E24" s="2" t="n">
-        <v>1.511443494518754</v>
+        <v>1.411560018392633</v>
       </c>
       <c r="F24" s="2" t="n">
-        <v>5129000</v>
+        <v>4390000</v>
       </c>
       <c r="G24" s="2" t="n">
-        <v>6076000</v>
+        <v>5482000</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>101</v>
@@ -1993,13 +2005,13 @@
         <v>103</v>
       </c>
       <c r="K24" s="2" t="n">
-        <v>0.03587268473386625</v>
+        <v>0.03665922551252847</v>
       </c>
       <c r="L24" s="2" t="n">
-        <v>0.04576892692560895</v>
+        <v>0.04143889091572419</v>
       </c>
       <c r="M24" s="2" t="n">
-        <v>0.009896242191742705</v>
+        <v>0.004779665403195715</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -2010,19 +2022,19 @@
         <v>104</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>109618</v>
+        <v>183991</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>166135</v>
+        <v>278092</v>
       </c>
       <c r="E25" s="2" t="n">
-        <v>1.515581382619643</v>
+        <v>1.511443494518754</v>
       </c>
       <c r="F25" s="2" t="n">
-        <v>2579000</v>
+        <v>5129000</v>
       </c>
       <c r="G25" s="2" t="n">
-        <v>2989000</v>
+        <v>6076000</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>105</v>
@@ -2034,13 +2046,13 @@
         <v>107</v>
       </c>
       <c r="K25" s="2" t="n">
-        <v>0.04250407134548274</v>
+        <v>0.03587268473386625</v>
       </c>
       <c r="L25" s="2" t="n">
-        <v>0.05558213449314152</v>
+        <v>0.04576892692560895</v>
       </c>
       <c r="M25" s="2" t="n">
-        <v>0.01307806314765877</v>
+        <v>0.009896242191742705</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -2051,19 +2063,19 @@
         <v>108</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>44781</v>
+        <v>109618</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>48474</v>
+        <v>166135</v>
       </c>
       <c r="E26" s="2" t="n">
-        <v>1.082468010986802</v>
+        <v>1.515581382619643</v>
       </c>
       <c r="F26" s="2" t="n">
-        <v>800000</v>
+        <v>2579000</v>
       </c>
       <c r="G26" s="2" t="n">
-        <v>1032000</v>
+        <v>2989000</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>109</v>
@@ -2075,13 +2087,13 @@
         <v>111</v>
       </c>
       <c r="K26" s="2" t="n">
-        <v>0.05597625</v>
+        <v>0.04250407134548274</v>
       </c>
       <c r="L26" s="2" t="n">
-        <v>0.04697093023255814</v>
-      </c>
-      <c r="M26" s="3" t="n">
-        <v>-0.009005319767441858</v>
+        <v>0.05558213449314152</v>
+      </c>
+      <c r="M26" s="2" t="n">
+        <v>0.01307806314765877</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -2092,19 +2104,19 @@
         <v>112</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>306822</v>
+        <v>44781</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>456688</v>
+        <v>48474</v>
       </c>
       <c r="E27" s="2" t="n">
-        <v>1.48844606970817</v>
+        <v>1.082468010986802</v>
       </c>
       <c r="F27" s="2" t="n">
-        <v>6664000</v>
+        <v>800000</v>
       </c>
       <c r="G27" s="2" t="n">
-        <v>10035000</v>
+        <v>1032000</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>113</v>
@@ -2116,13 +2128,13 @@
         <v>115</v>
       </c>
       <c r="K27" s="2" t="n">
-        <v>0.04604171668667467</v>
+        <v>0.05597625</v>
       </c>
       <c r="L27" s="2" t="n">
-        <v>0.04550951669157947</v>
+        <v>0.04697093023255814</v>
       </c>
       <c r="M27" s="3" t="n">
-        <v>-0.0005321999950951978</v>
+        <v>-0.009005319767441858</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -2133,19 +2145,19 @@
         <v>116</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>23931</v>
+        <v>306822</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>61856</v>
-      </c>
-      <c r="E28" s="4" t="n">
-        <v>2.584764531360996</v>
+        <v>456688</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>1.48844606970817</v>
       </c>
       <c r="F28" s="2" t="n">
-        <v>638000</v>
+        <v>6664000</v>
       </c>
       <c r="G28" s="2" t="n">
-        <v>757000</v>
+        <v>10035000</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>117</v>
@@ -2157,13 +2169,13 @@
         <v>119</v>
       </c>
       <c r="K28" s="2" t="n">
-        <v>0.03750940438871473</v>
+        <v>0.04604171668667467</v>
       </c>
       <c r="L28" s="2" t="n">
-        <v>0.08171202113606341</v>
-      </c>
-      <c r="M28" s="4" t="n">
-        <v>0.04420261674734868</v>
+        <v>0.04550951669157947</v>
+      </c>
+      <c r="M28" s="3" t="n">
+        <v>-0.0005321999950951978</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -2174,19 +2186,19 @@
         <v>120</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>60966</v>
+        <v>23931</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>100637</v>
-      </c>
-      <c r="E29" s="2" t="n">
-        <v>1.650706951415543</v>
+        <v>61856</v>
+      </c>
+      <c r="E29" s="4" t="n">
+        <v>2.584764531360996</v>
       </c>
       <c r="F29" s="2" t="n">
-        <v>1221000</v>
+        <v>638000</v>
       </c>
       <c r="G29" s="2" t="n">
-        <v>2884000</v>
+        <v>757000</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>121</v>
@@ -2198,13 +2210,13 @@
         <v>123</v>
       </c>
       <c r="K29" s="2" t="n">
-        <v>0.04993120393120393</v>
+        <v>0.03750940438871473</v>
       </c>
       <c r="L29" s="2" t="n">
-        <v>0.03489493758668516</v>
-      </c>
-      <c r="M29" s="3" t="n">
-        <v>-0.01503626634451877</v>
+        <v>0.08171202113606341</v>
+      </c>
+      <c r="M29" s="4" t="n">
+        <v>0.04420261674734868</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -2215,19 +2227,19 @@
         <v>124</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>30638</v>
+        <v>60966</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>37529</v>
+        <v>100637</v>
       </c>
       <c r="E30" s="2" t="n">
-        <v>1.224916770024153</v>
+        <v>1.650706951415543</v>
       </c>
       <c r="F30" s="2" t="n">
-        <v>1112000</v>
+        <v>1221000</v>
       </c>
       <c r="G30" s="2" t="n">
-        <v>1330000</v>
+        <v>2884000</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>125</v>
@@ -2239,13 +2251,13 @@
         <v>127</v>
       </c>
       <c r="K30" s="2" t="n">
-        <v>0.02755215827338129</v>
+        <v>0.04993120393120393</v>
       </c>
       <c r="L30" s="2" t="n">
-        <v>0.02821729323308271</v>
-      </c>
-      <c r="M30" s="2" t="n">
-        <v>0.0006651349597014133</v>
+        <v>0.03489493758668516</v>
+      </c>
+      <c r="M30" s="3" t="n">
+        <v>-0.01503626634451877</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -2256,19 +2268,19 @@
         <v>128</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>214467</v>
+        <v>30638</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>257571</v>
+        <v>37529</v>
       </c>
       <c r="E31" s="2" t="n">
-        <v>1.200981969254011</v>
+        <v>1.224916770024153</v>
       </c>
       <c r="F31" s="2" t="n">
-        <v>7763000</v>
+        <v>1112000</v>
       </c>
       <c r="G31" s="2" t="n">
-        <v>8935000</v>
+        <v>1330000</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>129</v>
@@ -2280,13 +2292,13 @@
         <v>131</v>
       </c>
       <c r="K31" s="2" t="n">
-        <v>0.02762681952853278</v>
+        <v>0.02755215827338129</v>
       </c>
       <c r="L31" s="2" t="n">
-        <v>0.02882719641857862</v>
+        <v>0.02821729323308271</v>
       </c>
       <c r="M31" s="2" t="n">
-        <v>0.001200376890045839</v>
+        <v>0.0006651349597014133</v>
       </c>
     </row>
     <row r="32" spans="1:13">
@@ -2297,19 +2309,19 @@
         <v>132</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>47156</v>
+        <v>214467</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>78795</v>
+        <v>257571</v>
       </c>
       <c r="E32" s="2" t="n">
-        <v>1.67094325218424</v>
+        <v>1.200981969254011</v>
       </c>
       <c r="F32" s="2" t="n">
-        <v>1522000</v>
+        <v>7763000</v>
       </c>
       <c r="G32" s="2" t="n">
-        <v>2080000</v>
+        <v>8935000</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>133</v>
@@ -2321,13 +2333,13 @@
         <v>135</v>
       </c>
       <c r="K32" s="2" t="n">
-        <v>0.03098291721419185</v>
+        <v>0.02762681952853278</v>
       </c>
       <c r="L32" s="2" t="n">
-        <v>0.03788221153846154</v>
+        <v>0.02882719641857862</v>
       </c>
       <c r="M32" s="2" t="n">
-        <v>0.006899294324269684</v>
+        <v>0.001200376890045839</v>
       </c>
     </row>
     <row r="33" spans="1:13">
@@ -2338,19 +2350,19 @@
         <v>136</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>55793</v>
+        <v>47156</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>122899</v>
+        <v>78795</v>
       </c>
       <c r="E33" s="2" t="n">
-        <v>2.202767372250999</v>
+        <v>1.67094325218424</v>
       </c>
       <c r="F33" s="2" t="n">
-        <v>1582000</v>
+        <v>1522000</v>
       </c>
       <c r="G33" s="2" t="n">
-        <v>1894000</v>
+        <v>2080000</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>137</v>
@@ -2358,17 +2370,17 @@
       <c r="I33" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="2" t="s">
         <v>139</v>
       </c>
       <c r="K33" s="2" t="n">
-        <v>0.03526738305941846</v>
+        <v>0.03098291721419185</v>
       </c>
       <c r="L33" s="2" t="n">
-        <v>0.06488859556494192</v>
+        <v>0.03788221153846154</v>
       </c>
       <c r="M33" s="2" t="n">
-        <v>0.02962121250552346</v>
+        <v>0.006899294324269684</v>
       </c>
     </row>
     <row r="34" spans="1:13">
@@ -2379,19 +2391,19 @@
         <v>140</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>441255</v>
+        <v>55793</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>508093</v>
+        <v>122899</v>
       </c>
       <c r="E34" s="2" t="n">
-        <v>1.151472504560855</v>
+        <v>2.202767372250999</v>
       </c>
       <c r="F34" s="2" t="n">
-        <v>18021000</v>
+        <v>1582000</v>
       </c>
       <c r="G34" s="2" t="n">
-        <v>19747000</v>
+        <v>1894000</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>141</v>
@@ -2399,17 +2411,17 @@
       <c r="I34" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>143</v>
       </c>
       <c r="K34" s="2" t="n">
-        <v>0.02448560013317796</v>
+        <v>0.03526738305941846</v>
       </c>
       <c r="L34" s="2" t="n">
-        <v>0.02573013622322378</v>
+        <v>0.06488859556494192</v>
       </c>
       <c r="M34" s="2" t="n">
-        <v>0.001244536090045822</v>
+        <v>0.02962121250552346</v>
       </c>
     </row>
     <row r="35" spans="1:13">
@@ -2420,19 +2432,19 @@
         <v>144</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>486092</v>
+        <v>441255</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>509116</v>
+        <v>508093</v>
       </c>
       <c r="E35" s="2" t="n">
-        <v>1.047365519284415</v>
+        <v>1.151472504560855</v>
       </c>
       <c r="F35" s="2" t="n">
-        <v>10864000</v>
+        <v>18021000</v>
       </c>
       <c r="G35" s="2" t="n">
-        <v>11605000</v>
+        <v>19747000</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>145</v>
@@ -2444,13 +2456,13 @@
         <v>147</v>
       </c>
       <c r="K35" s="2" t="n">
-        <v>0.04474337260677467</v>
+        <v>0.02448560013317796</v>
       </c>
       <c r="L35" s="2" t="n">
-        <v>0.04387040068935803</v>
-      </c>
-      <c r="M35" s="3" t="n">
-        <v>-0.0008729719174166359</v>
+        <v>0.02573013622322378</v>
+      </c>
+      <c r="M35" s="2" t="n">
+        <v>0.001244536090045822</v>
       </c>
     </row>
     <row r="36" spans="1:13">
@@ -2461,19 +2473,19 @@
         <v>148</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>145024</v>
+        <v>486092</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>209280</v>
+        <v>509116</v>
       </c>
       <c r="E36" s="2" t="n">
-        <v>1.443071491615181</v>
+        <v>1.047365519284415</v>
       </c>
       <c r="F36" s="2" t="n">
-        <v>3149000</v>
+        <v>10864000</v>
       </c>
       <c r="G36" s="2" t="n">
-        <v>3907000</v>
+        <v>11605000</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>149</v>
@@ -2485,13 +2497,13 @@
         <v>151</v>
       </c>
       <c r="K36" s="2" t="n">
-        <v>0.046053985392188</v>
+        <v>0.04474337260677467</v>
       </c>
       <c r="L36" s="2" t="n">
-        <v>0.05356539544407474</v>
-      </c>
-      <c r="M36" s="2" t="n">
-        <v>0.007511410051886741</v>
+        <v>0.04387040068935803</v>
+      </c>
+      <c r="M36" s="3" t="n">
+        <v>-0.0008729719174166359</v>
       </c>
     </row>
     <row r="37" spans="1:13">
@@ -2502,19 +2514,19 @@
         <v>152</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>146639</v>
+        <v>145024</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>161265</v>
+        <v>209280</v>
       </c>
       <c r="E37" s="2" t="n">
-        <v>1.099741542154543</v>
+        <v>1.443071491615181</v>
       </c>
       <c r="F37" s="2" t="n">
-        <v>2860000</v>
+        <v>3149000</v>
       </c>
       <c r="G37" s="2" t="n">
-        <v>4025000</v>
+        <v>3907000</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>153</v>
@@ -2526,13 +2538,13 @@
         <v>155</v>
       </c>
       <c r="K37" s="2" t="n">
-        <v>0.05127237762237762</v>
+        <v>0.046053985392188</v>
       </c>
       <c r="L37" s="2" t="n">
-        <v>0.04006583850931677</v>
-      </c>
-      <c r="M37" s="3" t="n">
-        <v>-0.01120653911306085</v>
+        <v>0.05356539544407474</v>
+      </c>
+      <c r="M37" s="2" t="n">
+        <v>0.007511410051886741</v>
       </c>
     </row>
     <row r="38" spans="1:13">
@@ -2543,19 +2555,19 @@
         <v>156</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>391529</v>
+        <v>146639</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>499326</v>
+        <v>161265</v>
       </c>
       <c r="E38" s="2" t="n">
-        <v>1.275323156139136</v>
+        <v>1.099741542154543</v>
       </c>
       <c r="F38" s="2" t="n">
-        <v>11903000</v>
+        <v>2860000</v>
       </c>
       <c r="G38" s="2" t="n">
-        <v>12792000</v>
+        <v>4025000</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>157</v>
@@ -2567,13 +2579,13 @@
         <v>159</v>
       </c>
       <c r="K38" s="2" t="n">
-        <v>0.03289330420902294</v>
+        <v>0.05127237762237762</v>
       </c>
       <c r="L38" s="2" t="n">
-        <v>0.03903424015009381</v>
-      </c>
-      <c r="M38" s="2" t="n">
-        <v>0.006140935941070874</v>
+        <v>0.04006583850931677</v>
+      </c>
+      <c r="M38" s="3" t="n">
+        <v>-0.01120653911306085</v>
       </c>
     </row>
     <row r="39" spans="1:13">
@@ -2584,19 +2596,19 @@
         <v>160</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>21902</v>
+        <v>391529</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>26152</v>
+        <v>499326</v>
       </c>
       <c r="E39" s="2" t="n">
-        <v>1.194046205825952</v>
+        <v>1.275323156139136</v>
       </c>
       <c r="F39" s="2" t="n">
-        <v>1006000</v>
+        <v>11903000</v>
       </c>
       <c r="G39" s="2" t="n">
-        <v>1056000</v>
+        <v>12792000</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>161</v>
@@ -2608,13 +2620,13 @@
         <v>163</v>
       </c>
       <c r="K39" s="2" t="n">
-        <v>0.0217713717693837</v>
+        <v>0.03289330420902294</v>
       </c>
       <c r="L39" s="2" t="n">
-        <v>0.02476515151515151</v>
+        <v>0.03903424015009381</v>
       </c>
       <c r="M39" s="2" t="n">
-        <v>0.002993779745767818</v>
+        <v>0.006140935941070874</v>
       </c>
     </row>
     <row r="40" spans="1:13">
@@ -2625,19 +2637,19 @@
         <v>164</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>189884</v>
+        <v>21902</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>277492</v>
+        <v>26152</v>
       </c>
       <c r="E40" s="2" t="n">
-        <v>1.461376419287565</v>
+        <v>1.194046205825952</v>
       </c>
       <c r="F40" s="2" t="n">
-        <v>3501000</v>
+        <v>1006000</v>
       </c>
       <c r="G40" s="2" t="n">
-        <v>4895000</v>
+        <v>1056000</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>165</v>
@@ -2649,13 +2661,13 @@
         <v>167</v>
       </c>
       <c r="K40" s="2" t="n">
-        <v>0.05423707512139389</v>
+        <v>0.0217713717693837</v>
       </c>
       <c r="L40" s="2" t="n">
-        <v>0.05668886618998979</v>
+        <v>0.02476515151515151</v>
       </c>
       <c r="M40" s="2" t="n">
-        <v>0.002451791068595895</v>
+        <v>0.002993779745767818</v>
       </c>
     </row>
     <row r="41" spans="1:13">
@@ -2666,19 +2678,19 @@
         <v>168</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>21611</v>
+        <v>189884</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>41292</v>
+        <v>277492</v>
       </c>
       <c r="E41" s="2" t="n">
-        <v>1.910693628244875</v>
+        <v>1.461376419287565</v>
       </c>
       <c r="F41" s="2" t="n">
-        <v>697000</v>
+        <v>3501000</v>
       </c>
       <c r="G41" s="2" t="n">
-        <v>858000</v>
+        <v>4895000</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>169</v>
@@ -2690,13 +2702,13 @@
         <v>171</v>
       </c>
       <c r="K41" s="2" t="n">
-        <v>0.03100573888091822</v>
+        <v>0.05423707512139389</v>
       </c>
       <c r="L41" s="2" t="n">
-        <v>0.04812587412587412</v>
+        <v>0.05668886618998979</v>
       </c>
       <c r="M41" s="2" t="n">
-        <v>0.0171201352449559</v>
+        <v>0.002451791068595895</v>
       </c>
     </row>
     <row r="42" spans="1:13">
@@ -2707,19 +2719,19 @@
         <v>172</v>
       </c>
       <c r="C42" s="2" t="n">
-        <v>263218</v>
+        <v>21611</v>
       </c>
       <c r="D42" s="2" t="n">
-        <v>339945</v>
+        <v>41292</v>
       </c>
       <c r="E42" s="2" t="n">
-        <v>1.291496022308505</v>
+        <v>1.910693628244875</v>
       </c>
       <c r="F42" s="2" t="n">
-        <v>4894000</v>
+        <v>697000</v>
       </c>
       <c r="G42" s="2" t="n">
-        <v>6595000</v>
+        <v>858000</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>173</v>
@@ -2731,13 +2743,13 @@
         <v>175</v>
       </c>
       <c r="K42" s="2" t="n">
-        <v>0.05378381691867593</v>
+        <v>0.03100573888091822</v>
       </c>
       <c r="L42" s="2" t="n">
-        <v>0.05154586808188021</v>
-      </c>
-      <c r="M42" s="3" t="n">
-        <v>-0.00223794883679572</v>
+        <v>0.04812587412587412</v>
+      </c>
+      <c r="M42" s="2" t="n">
+        <v>0.0171201352449559</v>
       </c>
     </row>
     <row r="43" spans="1:13">
@@ -2748,19 +2760,19 @@
         <v>176</v>
       </c>
       <c r="C43" s="2" t="n">
-        <v>810060</v>
+        <v>263218</v>
       </c>
       <c r="D43" s="2" t="n">
-        <v>1338655</v>
+        <v>339945</v>
       </c>
       <c r="E43" s="2" t="n">
-        <v>1.652538083598746</v>
+        <v>1.291496022308505</v>
       </c>
       <c r="F43" s="2" t="n">
-        <v>17057000</v>
+        <v>4894000</v>
       </c>
       <c r="G43" s="2" t="n">
-        <v>27430000</v>
+        <v>6595000</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>177</v>
@@ -2772,36 +2784,36 @@
         <v>179</v>
       </c>
       <c r="K43" s="2" t="n">
-        <v>0.04749135252389049</v>
+        <v>0.05378381691867593</v>
       </c>
       <c r="L43" s="2" t="n">
-        <v>0.04880258840685381</v>
-      </c>
-      <c r="M43" s="2" t="n">
-        <v>0.001311235882963321</v>
+        <v>0.05154586808188021</v>
+      </c>
+      <c r="M43" s="3" t="n">
+        <v>-0.00223794883679572</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C44" s="2" t="n">
-        <v>52551</v>
+        <v>810060</v>
       </c>
       <c r="D44" s="2" t="n">
-        <v>103016</v>
+        <v>1338655</v>
       </c>
       <c r="E44" s="2" t="n">
-        <v>1.960305227303001</v>
+        <v>1.652538083598746</v>
       </c>
       <c r="F44" s="2" t="n">
-        <v>1731000</v>
+        <v>17057000</v>
       </c>
       <c r="G44" s="2" t="n">
-        <v>2991000</v>
+        <v>27430000</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>181</v>
@@ -2813,13 +2825,13 @@
         <v>183</v>
       </c>
       <c r="K44" s="2" t="n">
-        <v>0.03035875216637782</v>
+        <v>0.04749135252389049</v>
       </c>
       <c r="L44" s="2" t="n">
-        <v>0.03444199264460047</v>
+        <v>0.04880258840685381</v>
       </c>
       <c r="M44" s="2" t="n">
-        <v>0.004083240478222651</v>
+        <v>0.001311235882963321</v>
       </c>
     </row>
     <row r="45" spans="1:13">
@@ -2830,19 +2842,19 @@
         <v>184</v>
       </c>
       <c r="C45" s="2" t="n">
-        <v>248040</v>
+        <v>52551</v>
       </c>
       <c r="D45" s="2" t="n">
-        <v>382175</v>
+        <v>103016</v>
       </c>
       <c r="E45" s="2" t="n">
-        <v>1.540779712949524</v>
+        <v>1.960305227303001</v>
       </c>
       <c r="F45" s="2" t="n">
-        <v>6217000</v>
+        <v>1731000</v>
       </c>
       <c r="G45" s="2" t="n">
-        <v>8368000</v>
+        <v>2991000</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>185</v>
@@ -2854,13 +2866,13 @@
         <v>187</v>
       </c>
       <c r="K45" s="2" t="n">
-        <v>0.03989705645809876</v>
+        <v>0.03035875216637782</v>
       </c>
       <c r="L45" s="2" t="n">
-        <v>0.0456710086042065</v>
+        <v>0.03444199264460047</v>
       </c>
       <c r="M45" s="2" t="n">
-        <v>0.005773952146107743</v>
+        <v>0.004083240478222651</v>
       </c>
     </row>
     <row r="46" spans="1:13">
@@ -2871,19 +2883,19 @@
         <v>188</v>
       </c>
       <c r="C46" s="2" t="n">
-        <v>16092</v>
+        <v>248040</v>
       </c>
       <c r="D46" s="2" t="n">
-        <v>18838</v>
+        <v>382175</v>
       </c>
       <c r="E46" s="2" t="n">
-        <v>1.170643798160577</v>
+        <v>1.540779712949524</v>
       </c>
       <c r="F46" s="2" t="n">
-        <v>565000</v>
+        <v>6217000</v>
       </c>
       <c r="G46" s="2" t="n">
-        <v>626000</v>
+        <v>8368000</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>189</v>
@@ -2895,13 +2907,13 @@
         <v>191</v>
       </c>
       <c r="K46" s="2" t="n">
-        <v>0.02848141592920354</v>
+        <v>0.03989705645809876</v>
       </c>
       <c r="L46" s="2" t="n">
-        <v>0.0300926517571885</v>
+        <v>0.0456710086042065</v>
       </c>
       <c r="M46" s="2" t="n">
-        <v>0.001611235827984957</v>
+        <v>0.005773952146107743</v>
       </c>
     </row>
     <row r="47" spans="1:13">
@@ -2912,21 +2924,21 @@
         <v>192</v>
       </c>
       <c r="C47" s="2" t="n">
-        <v>310649</v>
+        <v>16092</v>
       </c>
       <c r="D47" s="2" t="n">
-        <v>307476</v>
+        <v>18838</v>
       </c>
       <c r="E47" s="2" t="n">
-        <v>0.9897858998419438</v>
+        <v>1.170643798160577</v>
       </c>
       <c r="F47" s="2" t="n">
-        <v>4903000</v>
+        <v>565000</v>
       </c>
       <c r="G47" s="2" t="n">
-        <v>7160000</v>
-      </c>
-      <c r="H47" s="4" t="s">
+        <v>626000</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>193</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -2936,13 +2948,13 @@
         <v>195</v>
       </c>
       <c r="K47" s="2" t="n">
-        <v>0.06335896389965327</v>
+        <v>0.02848141592920354</v>
       </c>
       <c r="L47" s="2" t="n">
-        <v>0.04294357541899441</v>
-      </c>
-      <c r="M47" s="3" t="n">
-        <v>-0.02041538848065886</v>
+        <v>0.0300926517571885</v>
+      </c>
+      <c r="M47" s="2" t="n">
+        <v>0.001611235827984957</v>
       </c>
     </row>
     <row r="48" spans="1:13">
@@ -2953,21 +2965,21 @@
         <v>196</v>
       </c>
       <c r="C48" s="2" t="n">
-        <v>167864</v>
+        <v>310649</v>
       </c>
       <c r="D48" s="2" t="n">
-        <v>234401</v>
+        <v>307476</v>
       </c>
       <c r="E48" s="2" t="n">
-        <v>1.396374445980079</v>
+        <v>0.9897858998419438</v>
       </c>
       <c r="F48" s="2" t="n">
-        <v>4905000</v>
+        <v>4903000</v>
       </c>
       <c r="G48" s="2" t="n">
-        <v>5768000</v>
-      </c>
-      <c r="H48" s="2" t="s">
+        <v>7160000</v>
+      </c>
+      <c r="H48" s="4" t="s">
         <v>197</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -2977,13 +2989,13 @@
         <v>199</v>
       </c>
       <c r="K48" s="2" t="n">
-        <v>0.0342230377166157</v>
+        <v>0.06335896389965327</v>
       </c>
       <c r="L48" s="2" t="n">
-        <v>0.04063817614424411</v>
-      </c>
-      <c r="M48" s="2" t="n">
-        <v>0.006415138427628413</v>
+        <v>0.04294357541899441</v>
+      </c>
+      <c r="M48" s="3" t="n">
+        <v>-0.02041538848065886</v>
       </c>
     </row>
     <row r="49" spans="1:13">
@@ -2994,19 +3006,19 @@
         <v>200</v>
       </c>
       <c r="C49" s="2" t="n">
-        <v>78928</v>
+        <v>167864</v>
       </c>
       <c r="D49" s="2" t="n">
-        <v>110218</v>
+        <v>234401</v>
       </c>
       <c r="E49" s="2" t="n">
-        <v>1.396437259274275</v>
+        <v>1.396374445980079</v>
       </c>
       <c r="F49" s="2" t="n">
-        <v>1793000</v>
+        <v>4905000</v>
       </c>
       <c r="G49" s="2" t="n">
-        <v>1841000</v>
+        <v>5768000</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>201</v>
@@ -3018,36 +3030,36 @@
         <v>203</v>
       </c>
       <c r="K49" s="2" t="n">
-        <v>0.04402007808142777</v>
+        <v>0.0342230377166157</v>
       </c>
       <c r="L49" s="2" t="n">
-        <v>0.05986854970124932</v>
+        <v>0.04063817614424411</v>
       </c>
       <c r="M49" s="2" t="n">
-        <v>0.01584847161982155</v>
+        <v>0.006415138427628413</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="4" t="s">
+      <c r="B50" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C50" s="2" t="n">
-        <v>40155</v>
+        <v>78928</v>
       </c>
       <c r="D50" s="2" t="n">
-        <v>57747</v>
+        <v>110218</v>
       </c>
       <c r="E50" s="2" t="n">
-        <v>1.43810235338065</v>
+        <v>1.396437259274275</v>
       </c>
       <c r="F50" s="2" t="n">
-        <v>454000</v>
+        <v>1793000</v>
       </c>
       <c r="G50" s="2" t="n">
-        <v>587000</v>
+        <v>1841000</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>205</v>
@@ -3058,37 +3070,37 @@
       <c r="J50" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="K50" s="4" t="n">
-        <v>0.08844713656387665</v>
-      </c>
-      <c r="L50" s="4" t="n">
-        <v>0.09837649063032368</v>
+      <c r="K50" s="2" t="n">
+        <v>0.04402007808142777</v>
+      </c>
+      <c r="L50" s="2" t="n">
+        <v>0.05986854970124932</v>
       </c>
       <c r="M50" s="2" t="n">
-        <v>0.00992935406644703</v>
+        <v>0.01584847161982155</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="C51" s="4" t="n">
-        <v>9255237</v>
-      </c>
-      <c r="D51" s="4" t="n">
-        <v>12825682</v>
+      <c r="C51" s="2" t="n">
+        <v>40155</v>
+      </c>
+      <c r="D51" s="2" t="n">
+        <v>57747</v>
       </c>
       <c r="E51" s="2" t="n">
-        <v>1.385775642482197</v>
-      </c>
-      <c r="F51" s="4" t="n">
-        <v>249623000</v>
-      </c>
-      <c r="G51" s="4" t="n">
-        <v>320897000</v>
+        <v>1.43810235338065</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>454000</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>587000</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>209</v>
@@ -3099,13 +3111,54 @@
       <c r="J51" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="K51" s="2" t="n">
+      <c r="K51" s="4" t="n">
+        <v>0.08844713656387665</v>
+      </c>
+      <c r="L51" s="4" t="n">
+        <v>0.09837649063032368</v>
+      </c>
+      <c r="M51" s="2" t="n">
+        <v>0.00992935406644703</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
+      <c r="A52" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C52" s="4" t="n">
+        <v>9255237</v>
+      </c>
+      <c r="D52" s="4" t="n">
+        <v>12825682</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>1.385775642482197</v>
+      </c>
+      <c r="F52" s="4" t="n">
+        <v>249623000</v>
+      </c>
+      <c r="G52" s="4" t="n">
+        <v>320897000</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="K52" s="2" t="n">
         <v>0.03707685990473635</v>
       </c>
-      <c r="L51" s="2" t="n">
+      <c r="L52" s="2" t="n">
         <v>0.0399682203323808</v>
       </c>
-      <c r="M51" s="2" t="n">
+      <c r="M52" s="2" t="n">
         <v>0.00289136042764445</v>
       </c>
     </row>
